--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_target_Lifetime_Min.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_target_Lifetime_Min.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.45568428466758E-19</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.894592024678582E-09</v>
+        <v>4.09451772048666E-05</v>
       </c>
       <c r="D2">
-        <v>0.1474043695038804</v>
+        <v>0.1349277125771417</v>
       </c>
       <c r="E2">
-        <v>0.8131214864200552</v>
+        <v>0.8983061480446202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.573017879546552E-09</v>
+        <v>3.676266793030401E-12</v>
       </c>
       <c r="C3">
-        <v>0.0006306732627985137</v>
+        <v>0.001952774324661511</v>
       </c>
       <c r="D3">
-        <v>0.1367730723658386</v>
+        <v>0.1186635852848033</v>
       </c>
       <c r="E3">
-        <v>0.754982290267857</v>
+        <v>0.7537747045440015</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.455525622174766E-11</v>
+        <v>5.738750001259246E-14</v>
       </c>
       <c r="C4">
-        <v>0.0003368461994811561</v>
+        <v>0.00176446200604388</v>
       </c>
       <c r="D4">
-        <v>0.1117744852483172</v>
+        <v>0.09892343671077571</v>
       </c>
       <c r="E4">
-        <v>0.6070804060303006</v>
+        <v>0.6079271585069923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.859886114084314E-17</v>
+        <v>3.982554628300847E-08</v>
       </c>
       <c r="D5">
-        <v>0.007208659182546</v>
+        <v>0.005361046775579028</v>
       </c>
       <c r="E5">
-        <v>0.04501130247973132</v>
+        <v>0.04684562958328455</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.827225364041659E-05</v>
       </c>
       <c r="D2">
-        <v>0.1123080910505831</v>
+        <v>0.1211983383268814</v>
       </c>
       <c r="E2">
-        <v>0.8131214864201096</v>
+        <v>1.059056650510759</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.002302220284232882</v>
       </c>
       <c r="D3">
-        <v>0.1042080551358841</v>
+        <v>0.10658914378472</v>
       </c>
       <c r="E3">
-        <v>0.7549822902679078</v>
+        <v>0.8886615276671311</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.002080209766060187</v>
       </c>
       <c r="D4">
-        <v>0.08516151257015217</v>
+        <v>0.08885762547909347</v>
       </c>
       <c r="E4">
-        <v>0.6070804060303412</v>
+        <v>0.7167147877640474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.695226648849531E-08</v>
       </c>
       <c r="D5">
-        <v>0.005492311758130723</v>
+        <v>0.004815541214495818</v>
       </c>
       <c r="E5">
-        <v>0.04501130247973491</v>
+        <v>0.05522858288962464</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004996343988088803</v>
+        <v>6.274753108837452E-06</v>
       </c>
       <c r="C2">
-        <v>0.0194402073165356</v>
+        <v>0.005732662478034578</v>
       </c>
       <c r="D2">
-        <v>1.264699885066036</v>
+        <v>0.9345146700513109</v>
       </c>
       <c r="E2">
-        <v>2.070245676915336</v>
+        <v>1.468446836336422</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003689272420938101</v>
+        <v>4.265998591901206E-05</v>
       </c>
       <c r="C3">
-        <v>0.4894128527942485</v>
+        <v>0.02071346471615799</v>
       </c>
       <c r="D3">
-        <v>0.8886328477300586</v>
+        <v>0.6889245322885504</v>
       </c>
       <c r="E3">
-        <v>1.552184907137255</v>
+        <v>1.05851380799705</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009318027231660879</v>
+        <v>0.0001264939349260171</v>
       </c>
       <c r="C4">
-        <v>0.1090581835713317</v>
+        <v>0.005578321742793286</v>
       </c>
       <c r="D4">
-        <v>1.05784163086344</v>
+        <v>0.580451187597384</v>
       </c>
       <c r="E4">
-        <v>1.788123587539221</v>
+        <v>0.9219790427795368</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003016841357489923</v>
+        <v>3.974642869529463E-05</v>
       </c>
       <c r="C5">
-        <v>0.07652694997609635</v>
+        <v>0.01220582660064061</v>
       </c>
       <c r="D5">
-        <v>0.9969023953454611</v>
+        <v>0.84504708782342</v>
       </c>
       <c r="E5">
-        <v>1.757829693982964</v>
+        <v>1.211814485320632</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.341175675907166E-05</v>
+        <v>1.076099402252142E-06</v>
       </c>
       <c r="C2">
-        <v>0.001998293219214392</v>
+        <v>0.001118055767396142</v>
       </c>
       <c r="D2">
-        <v>0.836659011110328</v>
+        <v>0.5473654256914889</v>
       </c>
       <c r="E2">
-        <v>2.553279458085891</v>
+        <v>1.499733990636409</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.666419205255739E-05</v>
+        <v>1.148298763755546E-06</v>
       </c>
       <c r="C3">
-        <v>0.01821732615110078</v>
+        <v>0.00371658900214459</v>
       </c>
       <c r="D3">
-        <v>0.4567345111362074</v>
+        <v>0.3007155961130537</v>
       </c>
       <c r="E3">
-        <v>1.536080615865836</v>
+        <v>0.8463127989509267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0005273422179231309</v>
+        <v>7.353957242698485E-06</v>
       </c>
       <c r="C4">
-        <v>0.003785855127530832</v>
+        <v>0.001049615036840165</v>
       </c>
       <c r="D4">
-        <v>0.6174460803910278</v>
+        <v>0.322155078983428</v>
       </c>
       <c r="E4">
-        <v>2.128650746148338</v>
+        <v>1.057973328863776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002918342513006147</v>
+        <v>3.950110178780338E-06</v>
       </c>
       <c r="C5">
-        <v>0.004967583563784485</v>
+        <v>0.001332061493519333</v>
       </c>
       <c r="D5">
-        <v>0.7374355342131388</v>
+        <v>0.5277473432987078</v>
       </c>
       <c r="E5">
-        <v>2.277846581435195</v>
+        <v>1.269697946437359</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_target_Lifetime_Min.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_target_Lifetime_Min.xlsx
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.45568428466758E-19</v>
       </c>
       <c r="C2">
-        <v>4.09451772048666E-05</v>
+        <v>0.0004851533198767937</v>
       </c>
       <c r="D2">
-        <v>0.1349277125771417</v>
+        <v>0.1474043695038804</v>
       </c>
       <c r="E2">
-        <v>0.8983061480446202</v>
+        <v>0.8131214864200552</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.676266793030401E-12</v>
+        <v>1.573017879546552E-09</v>
       </c>
       <c r="C3">
-        <v>0.001952774324661511</v>
+        <v>0.008234292916330184</v>
       </c>
       <c r="D3">
-        <v>0.1186635852848033</v>
+        <v>0.1367730723658386</v>
       </c>
       <c r="E3">
-        <v>0.7537747045440015</v>
+        <v>0.754982290267857</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.738750001259246E-14</v>
+        <v>2.455525622174766E-11</v>
       </c>
       <c r="C4">
-        <v>0.00176446200604388</v>
+        <v>0.007637918818402064</v>
       </c>
       <c r="D4">
-        <v>0.09892343671077571</v>
+        <v>0.1117744852483172</v>
       </c>
       <c r="E4">
-        <v>0.6079271585069923</v>
+        <v>0.6070804060303006</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.982554628300847E-08</v>
+        <v>1.687926027758808E-05</v>
       </c>
       <c r="D5">
-        <v>0.005361046775579028</v>
+        <v>0.007208659182546</v>
       </c>
       <c r="E5">
-        <v>0.04684562958328455</v>
+        <v>0.04501130247973132</v>
       </c>
     </row>
   </sheetData>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.827225364041659E-05</v>
+        <v>0.0004851533198768265</v>
       </c>
       <c r="D2">
-        <v>0.1211983383268814</v>
+        <v>0.1123080910505831</v>
       </c>
       <c r="E2">
-        <v>1.059056650510759</v>
+        <v>0.8131214864201096</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -526,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.002302220284232882</v>
+        <v>0.008234292916330738</v>
       </c>
       <c r="D3">
-        <v>0.10658914378472</v>
+        <v>0.1042080551358841</v>
       </c>
       <c r="E3">
-        <v>0.8886615276671311</v>
+        <v>0.7549822902679078</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002080209766060187</v>
+        <v>0.007637918818402577</v>
       </c>
       <c r="D4">
-        <v>0.08885762547909347</v>
+        <v>0.08516151257015217</v>
       </c>
       <c r="E4">
-        <v>0.7167147877640474</v>
+        <v>0.6070804060303412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.695226648849531E-08</v>
+        <v>1.687926027758942E-05</v>
       </c>
       <c r="D5">
-        <v>0.004815541214495818</v>
+        <v>0.005492311758130723</v>
       </c>
       <c r="E5">
-        <v>0.05522858288962464</v>
+        <v>0.04501130247973491</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.274753108837452E-06</v>
+        <v>0.0004996343988088803</v>
       </c>
       <c r="C2">
-        <v>0.005732662478034578</v>
+        <v>0.04937646078717243</v>
       </c>
       <c r="D2">
-        <v>0.9345146700513109</v>
+        <v>1.264699885066036</v>
       </c>
       <c r="E2">
-        <v>1.468446836336422</v>
+        <v>2.070245676915336</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.265998591901206E-05</v>
+        <v>0.003689272420938101</v>
       </c>
       <c r="C3">
-        <v>0.02071346471615799</v>
+        <v>0.05729477318728819</v>
       </c>
       <c r="D3">
-        <v>0.6889245322885504</v>
+        <v>0.8886328477300586</v>
       </c>
       <c r="E3">
-        <v>1.05851380799705</v>
+        <v>1.552184907137255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001264939349260171</v>
+        <v>0.009318027231660879</v>
       </c>
       <c r="C4">
-        <v>0.005578321742793286</v>
+        <v>0.0440480498952964</v>
       </c>
       <c r="D4">
-        <v>0.580451187597384</v>
+        <v>1.05784163086344</v>
       </c>
       <c r="E4">
-        <v>0.9219790427795368</v>
+        <v>1.788123587539221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.974642869529463E-05</v>
+        <v>0.003016841357489923</v>
       </c>
       <c r="C5">
-        <v>0.01220582660064061</v>
+        <v>0.04146064243109764</v>
       </c>
       <c r="D5">
-        <v>0.84504708782342</v>
+        <v>0.9969023953454611</v>
       </c>
       <c r="E5">
-        <v>1.211814485320632</v>
+        <v>1.757829693982964</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.076099402252142E-06</v>
+        <v>8.341175675907166E-05</v>
       </c>
       <c r="C2">
-        <v>0.001118055767396142</v>
+        <v>0.01652097409187206</v>
       </c>
       <c r="D2">
-        <v>0.5473654256914889</v>
+        <v>0.836659011110328</v>
       </c>
       <c r="E2">
-        <v>1.499733990636409</v>
+        <v>2.553279458085891</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.148298763755546E-06</v>
+        <v>9.666419205255739E-05</v>
       </c>
       <c r="C3">
-        <v>0.00371658900214459</v>
+        <v>0.01561751262125499</v>
       </c>
       <c r="D3">
-        <v>0.3007155961130537</v>
+        <v>0.4567345111362074</v>
       </c>
       <c r="E3">
-        <v>0.8463127989509267</v>
+        <v>1.536080615865836</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.353957242698485E-06</v>
+        <v>0.0005273422179231309</v>
       </c>
       <c r="C4">
-        <v>0.001049615036840165</v>
+        <v>0.01397792516947091</v>
       </c>
       <c r="D4">
-        <v>0.322155078983428</v>
+        <v>0.6174460803910278</v>
       </c>
       <c r="E4">
-        <v>1.057973328863776</v>
+        <v>2.128650746148338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.950110178780338E-06</v>
+        <v>0.0002918342513006147</v>
       </c>
       <c r="C5">
-        <v>0.001332061493519333</v>
+        <v>0.0161799119914323</v>
       </c>
       <c r="D5">
-        <v>0.5277473432987078</v>
+        <v>0.7374355342131388</v>
       </c>
       <c r="E5">
-        <v>1.269697946437359</v>
+        <v>2.277846581435195</v>
       </c>
     </row>
   </sheetData>
